--- a/exec/symlex_vpn_windows/test_cases(app)/server_list (07-03-24)/server_list.xlsx
+++ b/exec/symlex_vpn_windows/test_cases(app)/server_list (07-03-24)/server_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\exec\symlex_vpn_windows\test_cases(app)\server_list\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\exec\symlex_vpn_windows\test_cases(app)\server_list (07-03-24)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC5D7CC-E7F8-4573-A7E0-9C105C86DF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB66CDB5-C318-41C5-BD08-E29D6644459E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="131">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -555,6 +555,21 @@
   <si>
     <t>Fail</t>
   </si>
+  <si>
+    <t>check if text is cleared after going to another page</t>
+  </si>
+  <si>
+    <t>1. go to appstore and install symlexvpn in the desktop
+2. open the installed symlexvpn application.
+3. login with proper credentials
+4. navigate to the vpn connection page
+5. goto to search place holder
+6. type something for search,goto another page and again come to this page
+7. check if text is cleared or not after coming from another page</t>
+  </si>
+  <si>
+    <t>text should be cleared</t>
+  </si>
 </sst>
 </file>
 
@@ -754,7 +769,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -806,6 +821,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1534,7 +1552,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:G32" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:G33" dataDxfId="7">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Test Case ID" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Prerequisites" dataDxfId="5"/>
@@ -1749,11 +1767,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:Z990"/>
+  <dimension ref="A1:Z991"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="3" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3026,14 +3044,26 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
+    <row r="33" spans="1:26" ht="141" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="G33" s="16"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -29850,12 +29880,21 @@
       <c r="Y990" s="1"/>
       <c r="Z990" s="1"/>
     </row>
+    <row r="991" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A991" s="5"/>
+      <c r="B991" s="5"/>
+      <c r="C991" s="5"/>
+      <c r="D991" s="5"/>
+      <c r="E991" s="5"/>
+      <c r="F991" s="5"/>
+      <c r="G991" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G2"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F5:F32" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F5:F33" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4" xr:uid="{00000000-0002-0000-0000-000001000000}">
